--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1185866.128724662</v>
+        <v>1186650.274662691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6209037.480331035</v>
+        <v>6209037.480331033</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>7.068036743741261</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>195.1307326477868</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>169.0708280266249</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.14629172736426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8.172609644471923</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1136,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>158.841334124391</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>169.0708280266249</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,13 +1265,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>24.9778700346115</v>
       </c>
       <c r="U9" t="n">
-        <v>18.57582937122725</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,61 +1369,61 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>141.5655248370115</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>58.39471844666272</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>110.1044675570004</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.10019733413721</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>9.245357950761532</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2615,7 +2617,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>52.24924162573038</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>100.2757381414389</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>52.00379634267769</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2131257424249</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>142.2301817782798</v>
+        <v>65.84699805791786</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,10 +3286,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.99033145897384</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,43 +3435,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>11.19305615617957</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>93.38533837660198</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>84.93132355949651</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="C41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3822,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.967398110280118</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.844953612767414</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,58 +3976,58 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>75.13869406575488</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>660.5968149695918</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>660.5968149695918</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>660.5968149695918</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>651.2927635848137</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>443.6989813239244</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4331,16 +4333,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>822.0713777531216</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>660.5968149695918</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>660.5968149695918</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="C3" t="n">
-        <v>137.7041268545529</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="D3" t="n">
-        <v>137.7041268545529</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="E3" t="n">
-        <v>137.7041268545529</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="F3" t="n">
-        <v>137.7041268545529</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>137.7041268545529</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>24.33499126213225</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>639.4279001397708</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="V3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="W3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="X3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.7041268545529</v>
+        <v>451.5522830545109</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4528,10 +4530,10 @@
         <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D5" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E5" t="n">
-        <v>406.8838132313431</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>454.031803447393</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4653,10 +4655,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="X6" t="n">
-        <v>441.0602509429012</v>
+        <v>813.8162164960793</v>
       </c>
       <c r="Y6" t="n">
-        <v>233.4664686820119</v>
+        <v>813.8162164960793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>651.2927635848137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4808,7 +4810,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4844,10 +4846,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="C9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="D9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="E9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F9" t="n">
-        <v>220.1101922903266</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G9" t="n">
-        <v>220.1101922903266</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,13 +4889,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4911,22 +4913,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>623.4238614516577</v>
       </c>
       <c r="U9" t="n">
-        <v>427.7039745512159</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="V9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="W9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="X9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1101922903266</v>
+        <v>415.8300791907684</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>199.2900309704538</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5279,16 +5281,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5303,25 +5305,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>90.33569644483418</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>90.33569644483418</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>90.33569644483418</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N18" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N18" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5710,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,10 +5834,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
         <v>304.2053859195205</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>376.0670529769968</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>376.0670529769968</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5932,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>962.2293816994886</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>226.0945550188371</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>226.0945550188371</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>226.0945550188371</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>66.85710001338163</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>66.85710001338163</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V24" t="n">
-        <v>226.0945550188371</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W24" t="n">
-        <v>226.0945550188371</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>226.0945550188371</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.0945550188371</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6166,13 +6168,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>380.2300195200815</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>231.2956098588302</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>72.05815485337473</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>72.05815485337473</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,10 +6308,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C33" t="n">
-        <v>655.0361258579891</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D33" t="n">
-        <v>506.1017161967378</v>
+        <v>245.784850018876</v>
       </c>
       <c r="E33" t="n">
-        <v>506.1017161967378</v>
+        <v>86.54739501342053</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6786,13 +6788,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6889,16 +6891,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6982,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>454.3181732824481</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C36" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>295.0807182769926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>148.5461603038775</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>454.3181732824481</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>454.3181732824481</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>454.3181732824481</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7193,25 +7195,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>30.58726043968704</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492.48569440222</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>660.701031422288</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7354,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7472,43 @@
         <v>305.7142837842288</v>
       </c>
       <c r="D42" t="n">
-        <v>156.7798741229775</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E42" t="n">
-        <v>156.7798741229775</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F42" t="n">
-        <v>156.7798741229775</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
-        <v>18.04904870559301</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>18.04904870559301</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7606,13 +7608,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7675,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7728,10 +7730,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
         <v>366.5706756325438</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7830,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8301,13 +8303,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,10 +8458,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8544,7 +8546,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,7 +8941,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10434,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11148,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>16.07955561838941</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>152.0811711237432</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,10 +24031,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>115.8369145239744</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>90.24331982907343</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.4378131530763</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24406,16 +24408,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24503,7 +24505,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>85.09427553748026</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>125.665643939536</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>93.06541605070619</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>22.29358612056512</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>129.0278429749881</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.839030615104122</v>
+        <v>79.22221433546602</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,10 +25174,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>122.3531857042368</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>358.5380445222895</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>43.95817878660866</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>141.0100585214783</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25710,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>153.6776823451208</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>88.55167923864767</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25953,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>130.6342911377226</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378669.3545708825</v>
+        <v>378669.3545708823</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398845.1590202699</v>
+        <v>398845.1590202698</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398845.1590202699</v>
+        <v>398845.1590202698</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398845.1590202698</v>
+        <v>398845.15902027</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398845.1590202699</v>
+        <v>398845.1590202698</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="L2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>191084.7734110323</v>
       </c>
-      <c r="M2" t="n">
-        <v>191084.7734110322</v>
-      </c>
       <c r="N2" t="n">
-        <v>191084.7734110324</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="P2" t="n">
         <v>181421.2881101714</v>
@@ -26424,10 +26426,10 @@
         <v>296630.5819651741</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26436,7 +26438,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26451,13 +26453,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60471.59418325149</v>
+        <v>60471.59418325165</v>
       </c>
       <c r="C6" t="n">
-        <v>129345.3507649414</v>
+        <v>129345.3507649415</v>
       </c>
       <c r="D6" t="n">
-        <v>129345.3507649413</v>
+        <v>129345.3507649412</v>
       </c>
       <c r="E6" t="n">
         <v>160833.095350598</v>
       </c>
       <c r="F6" t="n">
-        <v>160833.095350598</v>
+        <v>160833.0953505979</v>
       </c>
       <c r="G6" t="n">
         <v>158154.9506037611</v>
       </c>
       <c r="H6" t="n">
-        <v>167883.9935779282</v>
+        <v>167883.9935779281</v>
       </c>
       <c r="I6" t="n">
         <v>167883.9935779282</v>
@@ -26546,7 +26548,7 @@
         <v>114111.4826877187</v>
       </c>
       <c r="K6" t="n">
-        <v>167883.9935779281</v>
+        <v>167883.9935779282</v>
       </c>
       <c r="L6" t="n">
         <v>167883.9935779282</v>
@@ -26558,10 +26560,10 @@
         <v>167883.9935779283</v>
       </c>
       <c r="O6" t="n">
-        <v>160833.095350598</v>
+        <v>160833.0953505979</v>
       </c>
       <c r="P6" t="n">
-        <v>160833.095350598</v>
+        <v>160833.0953505979</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8417968937021</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>372.7193592013314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>82.32859610767382</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>30.81064943318802</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836632</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>246.2319094885102</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>168.910924345744</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.3868919225031</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27743,10 +27745,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>191.9921190503497</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27758,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699677</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27856,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>180.6334679913762</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>217.1671106294287</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,13 +27985,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.1868586602101</v>
       </c>
       <c r="U9" t="n">
-        <v>207.3655527097476</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28029,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34711,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35021,13 +35023,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35266,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37868,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1186650.274662691</v>
+        <v>1116989.938988164</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6209037.480331033</v>
+        <v>6209037.480331034</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>68.03808181848311</v>
       </c>
       <c r="U3" t="n">
-        <v>195.1307326477868</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>8.172609644471923</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.4993614069768</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>24.9778700346115</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>179.7521130251342</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1378,55 +1378,55 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>141.5655248370115</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,61 +1618,61 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>62.35969771424954</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>52.42556848774763</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>138.1189263353705</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>100.2757381414389</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.3895849832727</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>65.84699805791786</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,67 +3274,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>84.93132355949651</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>225.0039640932086</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,70 +3739,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.967398110280118</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>80.86228322859426</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.69006202085835</v>
+        <v>13.66473413638044</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C2" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E2" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4345,37 +4345,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.5522830545109</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>277.0992537733839</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
         <v>130.5646958002688</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>753.3460425829367</v>
       </c>
       <c r="U3" t="n">
-        <v>451.5522830545109</v>
+        <v>545.7522603220474</v>
       </c>
       <c r="V3" t="n">
-        <v>451.5522830545109</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="W3" t="n">
-        <v>451.5522830545109</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="X3" t="n">
-        <v>451.5522830545109</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.5522830545109</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
         <v>16.44142755506243</v>
@@ -4509,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.4380211865037</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C5" t="n">
-        <v>38.84423892561444</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D5" t="n">
-        <v>38.84423892561444</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E5" t="n">
-        <v>38.84423892561444</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>661.6255857082823</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>661.6255857082823</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X5" t="n">
-        <v>454.031803447393</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.4380211865037</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.6008794760112</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C6" t="n">
-        <v>471.1478501948842</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D6" t="n">
-        <v>322.2134405336329</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M6" t="n">
         <v>345.2616536067974</v>
-      </c>
-      <c r="M6" t="n">
-        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
         <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>813.8162164960793</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>813.8162164960793</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V6" t="n">
-        <v>813.8162164960793</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W6" t="n">
-        <v>813.8162164960793</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8162164960793</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y6" t="n">
-        <v>813.8162164960793</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="F8" t="n">
-        <v>192.3445302212503</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="G8" t="n">
-        <v>176.8872195999018</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>454.031803447393</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="C9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="D9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F9" t="n">
-        <v>269.2955212176533</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4889,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>623.4238614516577</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="V9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="W9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="X9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="Y9" t="n">
-        <v>415.8300791907684</v>
+        <v>163.7301181809632</v>
       </c>
     </row>
     <row r="10">
@@ -4953,16 +4953,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5047,46 +5047,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>412.2910008509983</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V12" t="n">
-        <v>412.2910008509983</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W12" t="n">
-        <v>412.2910008509983</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5220,31 +5220,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5393,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>343.894219580586</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5460,28 +5460,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="19">
@@ -5712,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5837,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6095,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="C26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>588.181657128899</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>353.0295488971563</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>241.7186438601369</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,10 +6554,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>813.1585848204618</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T30" t="n">
-        <v>813.1585848204618</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U30" t="n">
-        <v>813.1585848204618</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V30" t="n">
-        <v>813.1585848204618</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W30" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X30" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>245.784850018876</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>86.54739501342053</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6891,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W38" t="n">
-        <v>233.7108255783361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>401.4944711562937</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7502,10 +7502,10 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7529,13 +7529,13 @@
         <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
         <v>469.413761616576</v>
@@ -7675,25 +7675,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>807.2329312674061</v>
+        <v>808.268615999202</v>
       </c>
       <c r="S45" t="n">
-        <v>633.815586718075</v>
+        <v>808.268615999202</v>
       </c>
       <c r="T45" t="n">
-        <v>431.628992076841</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U45" t="n">
-        <v>224.0352098159517</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7830,16 +7830,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
         <v>16.44142755506243</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8941,7 +8941,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11150,13 +11150,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,22 +23266,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8848386932009</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>16.07955561838941</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773253</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>143.3229980630548</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23828,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>47.10484217125915</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>4.001132262029586</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>87.82245574560432</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>112.0378000911003</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>125.665643939536</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>22.29358612056512</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,16 +24931,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>345.9756526602163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>79.22221433546602</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>73.45469409868832</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,16 +25049,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25286,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25447,16 +25447,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25523,16 +25523,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>141.0100585214783</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>26.69101906771101</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25575,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3759156176843</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>153.6776823451208</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25769,13 +25769,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.8204125487101</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25885,7 +25885,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.46777213178478</v>
+        <v>86.49310001626269</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398845.15902027</v>
+        <v>398845.1590202698</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110322</v>
@@ -26343,7 +26343,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="L2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110323</v>
@@ -26352,7 +26352,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="P2" t="n">
         <v>181421.2881101714</v>
@@ -26429,7 +26429,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26456,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725994</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60471.59418325165</v>
+        <v>60471.59418325153</v>
       </c>
       <c r="C6" t="n">
+        <v>129345.3507649413</v>
+      </c>
+      <c r="D6" t="n">
         <v>129345.3507649415</v>
       </c>
-      <c r="D6" t="n">
-        <v>129345.3507649412</v>
-      </c>
       <c r="E6" t="n">
-        <v>160833.095350598</v>
+        <v>148194.9331957375</v>
       </c>
       <c r="F6" t="n">
-        <v>160833.0953505979</v>
+        <v>148194.9331957374</v>
       </c>
       <c r="G6" t="n">
-        <v>158154.9506037611</v>
+        <v>145936.9399837207</v>
       </c>
       <c r="H6" t="n">
-        <v>167883.9935779281</v>
+        <v>155665.9829578878</v>
       </c>
       <c r="I6" t="n">
-        <v>167883.9935779282</v>
+        <v>155665.9829578877</v>
       </c>
       <c r="J6" t="n">
-        <v>114111.4826877187</v>
+        <v>101893.4720676782</v>
       </c>
       <c r="K6" t="n">
-        <v>167883.9935779282</v>
+        <v>155665.9829578877</v>
       </c>
       <c r="L6" t="n">
-        <v>167883.9935779282</v>
+        <v>155665.9829578877</v>
       </c>
       <c r="M6" t="n">
-        <v>167883.9935779282</v>
+        <v>155665.9829578878</v>
       </c>
       <c r="N6" t="n">
-        <v>167883.9935779283</v>
+        <v>155665.9829578877</v>
       </c>
       <c r="O6" t="n">
-        <v>160833.0953505979</v>
+        <v>148194.9331957375</v>
       </c>
       <c r="P6" t="n">
-        <v>160833.0953505979</v>
+        <v>148194.9331957374</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8417968937021</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>58.79558085547222</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27508,22 +27508,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>132.1266468763385</v>
       </c>
       <c r="U3" t="n">
-        <v>30.81064943318802</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>36.78129424836632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>207.8341597252609</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>168.910924345744</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>156.6908966650487</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>82.32859610767382</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>191.9921190503497</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>180.6334679913762</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>18.59648815715457</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.1868586602101</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>46.18926905584058</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819725</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35661,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
